--- a/po_analysis_by_asin/B0BXMWBTPD_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMWBTPD_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45320</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -468,55 +468,55 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45376</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -524,47 +524,47 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45453</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45481</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45509</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45516</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>6</v>
@@ -572,73 +572,169 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45530</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45537</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45544</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45551</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45558</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45565</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45572</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45579</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45586</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B37" t="n">
         <v>6</v>
       </c>
     </row>
@@ -653,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,39 +771,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>10</v>
@@ -715,33 +811,73 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>24</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BXMWBTPD_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMWBTPD_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -765,7 +766,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -879,6 +880,663 @@
       </c>
       <c r="B15" t="n">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.157394087867994</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.17622008563799</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.7084387095703976</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.32939685484788</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.8767252070689162</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.665739274752104</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.9983434485576641</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.745191679083058</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.453431349080611</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.06101943356497</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.8171259912851397</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.01519349822399</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.9789737211462721</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.905053700305457</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.8562099680459888</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.50337642528063</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.240394351750074</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.26486005762117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.7294744196614545</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.53704002771888</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.7629665479839044</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.55693927992275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.9382557512362532</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.05226201763131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.2981270141250365</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.71153163887824</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.4211458230581507</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10.8904078515062</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.1135917635970542</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.47284491957235</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.2383968226852416</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.20076141853068</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1586697304639554</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11.14065189682535</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6050317287650741</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11.08819660373119</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.1838027639288522</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10.6840396648521</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03663544076195988</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11.18564973539178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.05364784477833526</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10.97110904817463</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5015113129917435</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11.0534007901653</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.1690308091786527</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11.00640460999188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5897612912377753</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11.36888760289435</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8171149282170486</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11.34837260302089</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8621975167393384</v>
+      </c>
+      <c r="D27" t="n">
+        <v>11.51430980497509</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3458742974674109</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11.16672655770474</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6878288220320558</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11.38475982040173</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9371934499598081</v>
+      </c>
+      <c r="D30" t="n">
+        <v>11.73733104447085</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3681957494194085</v>
+      </c>
+      <c r="D31" t="n">
+        <v>11.80531112625285</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.201348783045256</v>
+      </c>
+      <c r="D32" t="n">
+        <v>11.88801364617314</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8930776438032432</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11.64855804988502</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6332314142957464</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11.77065908395544</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.307165857051223</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11.7035209703224</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.165827034566659</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11.84415811490669</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5563662151954832</v>
+      </c>
+      <c r="D37" t="n">
+        <v>11.83735197270789</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8964408811613213</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.0834144649038</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8952131400953894</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11.7651366467835</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.241739306612066</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11.70188438351058</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.073029688754216</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12.01603233260422</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.025340110207794</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11.82045979992665</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.197457736639431</v>
+      </c>
+      <c r="D43" t="n">
+        <v>11.93018871100849</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.261857042238575</v>
+      </c>
+      <c r="D44" t="n">
+        <v>12.12111417584256</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9802135886251143</v>
+      </c>
+      <c r="D45" t="n">
+        <v>11.9894250635266</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BXMWBTPD_po_data.xlsx
+++ b/po_analysis_by_asin/B0BXMWBTPD_po_data.xlsx
@@ -893,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,16 +912,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -930,12 +920,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-1.157394087867994</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.17622008563799</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -944,12 +928,6 @@
       <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>-0.7084387095703976</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.32939685484788</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -958,12 +936,6 @@
       <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>-0.8767252070689162</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.665739274752104</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -972,12 +944,6 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.9983434485576641</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.745191679083058</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -986,12 +952,6 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>-1.453431349080611</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.06101943356497</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1000,12 +960,6 @@
       <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.8171259912851397</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.01519349822399</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1014,12 +968,6 @@
       <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>-0.9789737211462721</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.905053700305457</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1028,12 +976,6 @@
       <c r="B9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" t="n">
-        <v>-0.8562099680459888</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10.50337642528063</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1042,12 +984,6 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
-      <c r="C10" t="n">
-        <v>-1.240394351750074</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10.26486005762117</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1056,12 +992,6 @@
       <c r="B11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>-0.7294744196614545</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.53704002771888</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1070,12 +1000,6 @@
       <c r="B12" t="n">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.7629665479839044</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10.55693927992275</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1084,12 +1008,6 @@
       <c r="B13" t="n">
         <v>5</v>
       </c>
-      <c r="C13" t="n">
-        <v>-0.9382557512362532</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.05226201763131</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1098,12 +1016,6 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.2981270141250365</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10.71153163887824</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1112,12 +1024,6 @@
       <c r="B15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.4211458230581507</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10.8904078515062</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1126,12 +1032,6 @@
       <c r="B16" t="n">
         <v>5</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.1135917635970542</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10.47284491957235</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1140,12 +1040,6 @@
       <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>-0.2383968226852416</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11.20076141853068</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1154,12 +1048,6 @@
       <c r="B18" t="n">
         <v>6</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.1586697304639554</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11.14065189682535</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1168,12 +1056,6 @@
       <c r="B19" t="n">
         <v>6</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.6050317287650741</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11.08819660373119</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1182,12 +1064,6 @@
       <c r="B20" t="n">
         <v>6</v>
       </c>
-      <c r="C20" t="n">
-        <v>-0.1838027639288522</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10.6840396648521</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1196,12 +1072,6 @@
       <c r="B21" t="n">
         <v>6</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.03663544076195988</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11.18564973539178</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1210,12 +1080,6 @@
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" t="n">
-        <v>-0.05364784477833526</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10.97110904817463</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1224,12 +1088,6 @@
       <c r="B23" t="n">
         <v>6</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.5015113129917435</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11.0534007901653</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1238,12 +1096,6 @@
       <c r="B24" t="n">
         <v>6</v>
       </c>
-      <c r="C24" t="n">
-        <v>-0.1690308091786527</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11.00640460999188</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1252,12 +1104,6 @@
       <c r="B25" t="n">
         <v>6</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.5897612912377753</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11.36888760289435</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1266,12 +1112,6 @@
       <c r="B26" t="n">
         <v>6</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.8171149282170486</v>
-      </c>
-      <c r="D26" t="n">
-        <v>11.34837260302089</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1280,12 +1120,6 @@
       <c r="B27" t="n">
         <v>6</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.8621975167393384</v>
-      </c>
-      <c r="D27" t="n">
-        <v>11.51430980497509</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1294,12 +1128,6 @@
       <c r="B28" t="n">
         <v>6</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.3458742974674109</v>
-      </c>
-      <c r="D28" t="n">
-        <v>11.16672655770474</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1308,12 +1136,6 @@
       <c r="B29" t="n">
         <v>6</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.6878288220320558</v>
-      </c>
-      <c r="D29" t="n">
-        <v>11.38475982040173</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1322,12 +1144,6 @@
       <c r="B30" t="n">
         <v>6</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.9371934499598081</v>
-      </c>
-      <c r="D30" t="n">
-        <v>11.73733104447085</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1336,12 +1152,6 @@
       <c r="B31" t="n">
         <v>6</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.3681957494194085</v>
-      </c>
-      <c r="D31" t="n">
-        <v>11.80531112625285</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1350,12 +1160,6 @@
       <c r="B32" t="n">
         <v>6</v>
       </c>
-      <c r="C32" t="n">
-        <v>1.201348783045256</v>
-      </c>
-      <c r="D32" t="n">
-        <v>11.88801364617314</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1364,12 +1168,6 @@
       <c r="B33" t="n">
         <v>6</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.8930776438032432</v>
-      </c>
-      <c r="D33" t="n">
-        <v>11.64855804988502</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1378,12 +1176,6 @@
       <c r="B34" t="n">
         <v>6</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.6332314142957464</v>
-      </c>
-      <c r="D34" t="n">
-        <v>11.77065908395544</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1392,12 +1184,6 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" t="n">
-        <v>1.307165857051223</v>
-      </c>
-      <c r="D35" t="n">
-        <v>11.7035209703224</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1406,12 +1192,6 @@
       <c r="B36" t="n">
         <v>6</v>
       </c>
-      <c r="C36" t="n">
-        <v>1.165827034566659</v>
-      </c>
-      <c r="D36" t="n">
-        <v>11.84415811490669</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1420,12 +1200,6 @@
       <c r="B37" t="n">
         <v>6</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.5563662151954832</v>
-      </c>
-      <c r="D37" t="n">
-        <v>11.83735197270789</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1434,12 +1208,6 @@
       <c r="B38" t="n">
         <v>6</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.8964408811613213</v>
-      </c>
-      <c r="D38" t="n">
-        <v>12.0834144649038</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1448,12 +1216,6 @@
       <c r="B39" t="n">
         <v>6</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.8952131400953894</v>
-      </c>
-      <c r="D39" t="n">
-        <v>11.7651366467835</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1462,12 +1224,6 @@
       <c r="B40" t="n">
         <v>6</v>
       </c>
-      <c r="C40" t="n">
-        <v>1.241739306612066</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11.70188438351058</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1476,12 +1232,6 @@
       <c r="B41" t="n">
         <v>6</v>
       </c>
-      <c r="C41" t="n">
-        <v>1.073029688754216</v>
-      </c>
-      <c r="D41" t="n">
-        <v>12.01603233260422</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1490,12 +1240,6 @@
       <c r="B42" t="n">
         <v>6</v>
       </c>
-      <c r="C42" t="n">
-        <v>1.025340110207794</v>
-      </c>
-      <c r="D42" t="n">
-        <v>11.82045979992665</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1504,12 +1248,6 @@
       <c r="B43" t="n">
         <v>6</v>
       </c>
-      <c r="C43" t="n">
-        <v>1.197457736639431</v>
-      </c>
-      <c r="D43" t="n">
-        <v>11.93018871100849</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1518,12 +1256,6 @@
       <c r="B44" t="n">
         <v>7</v>
       </c>
-      <c r="C44" t="n">
-        <v>1.261857042238575</v>
-      </c>
-      <c r="D44" t="n">
-        <v>12.12111417584256</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1531,12 +1263,6 @@
       </c>
       <c r="B45" t="n">
         <v>7</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.9802135886251143</v>
-      </c>
-      <c r="D45" t="n">
-        <v>11.9894250635266</v>
       </c>
     </row>
   </sheetData>
